--- a/143.xlsx
+++ b/143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
         <v>295</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="n">
         <v>295</v>
@@ -524,29 +524,29 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>298</v>
       </c>
       <c r="C9" t="n">
-        <v>83117400000000</v>
+        <v>66253000000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>298</v>
       </c>
       <c r="C10" t="n">
-        <v>83117400000000</v>
+        <v>66253000000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B11" t="n">
         <v>298</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B12" t="n">
         <v>298</v>
@@ -568,65 +568,65 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
         <v>298</v>
       </c>
       <c r="C13" t="n">
-        <v>66253000000000</v>
+        <v>83117400000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B14" t="n">
         <v>298</v>
       </c>
       <c r="C14" t="n">
-        <v>66253000000000</v>
+        <v>83117400000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>300</v>
       </c>
       <c r="C15" t="n">
-        <v>77577943366688.58</v>
+        <v>70881022995143.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B16" t="n">
         <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>84322000000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
         <v>300</v>
       </c>
       <c r="C17" t="n">
-        <v>70881022995143.17</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C18" t="n">
         <v>60230000000000</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="n">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C19" t="n">
         <v>60230000000000</v>
@@ -645,21 +645,21 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C20" t="n">
-        <v>60230000000000</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C21" t="n">
         <v>84322000000000</v>
@@ -667,32 +667,32 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="B22" t="n">
         <v>400</v>
       </c>
       <c r="C22" t="n">
-        <v>80468158715814.98</v>
+        <v>71335910922478.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C23" t="n">
-        <v>71335910922478.38</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C24" t="n">
         <v>84322000000000</v>
@@ -700,54 +700,54 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B25" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>84322000000000</v>
+        <v>71501762774777.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C26" t="n">
-        <v>81290902897822.7</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C27" t="n">
-        <v>84322000000000</v>
+        <v>71540483353586.94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C28" t="n">
-        <v>71501762774777.86</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C29" t="n">
         <v>84322000000000</v>
@@ -755,32 +755,32 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="C30" t="n">
-        <v>81206600062114.92</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="C31" t="n">
-        <v>71540483353586.94</v>
+        <v>71516812724740.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="C32" t="n">
         <v>84322000000000</v>
@@ -788,43 +788,43 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="C33" t="n">
-        <v>84322000000000</v>
+        <v>71460640792990.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B34" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="C34" t="n">
-        <v>71516812724740.44</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B35" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="C35" t="n">
-        <v>80695418201504.91</v>
+        <v>84322000000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="C36" t="n">
         <v>84322000000000</v>
@@ -832,274 +832,274 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="C37" t="n">
-        <v>84322000000000</v>
+        <v>71387153191296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B38" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C38" t="n">
-        <v>79979533380792.27</v>
+        <v>71304596199731.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B39" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="C39" t="n">
-        <v>71460640792990.52</v>
+        <v>71217662430984.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="C40" t="n">
-        <v>84322000000000</v>
+        <v>71129108703250.55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B41" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="C41" t="n">
-        <v>84322000000000</v>
+        <v>71040585810289.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B42" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C42" t="n">
-        <v>71387153191296</v>
+        <v>70953088645100.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B43" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="C43" t="n">
-        <v>84322000000000</v>
+        <v>70867211705876.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B44" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="C44" t="n">
-        <v>79169836772789.05</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B45" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="C45" t="n">
-        <v>71304596199731.95</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B46" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="C46" t="n">
-        <v>78324528869378.39</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="B47" t="n">
-        <v>1100</v>
+        <v>1575</v>
       </c>
       <c r="C47" t="n">
-        <v>77475075418176.47</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B48" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="C48" t="n">
-        <v>71217662430984.5</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="C49" t="n">
-        <v>76638653601676.06</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B50" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="C50" t="n">
-        <v>71129108703250.55</v>
+        <v>70783299619480.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>1300</v>
+        <v>1625</v>
       </c>
       <c r="C51" t="n">
-        <v>75824502059827.84</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B52" t="n">
-        <v>1300</v>
+        <v>1650</v>
       </c>
       <c r="C52" t="n">
-        <v>71040585810289.28</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B53" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="C53" t="n">
-        <v>70953088645100.34</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B54" t="n">
-        <v>1400</v>
+        <v>1675</v>
       </c>
       <c r="C54" t="n">
-        <v>75037324350845.98</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="C55" t="n">
-        <v>60230000000000</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B56" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="C56" t="n">
-        <v>70867211705876.41</v>
+        <v>70701538579904.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="C57" t="n">
-        <v>74279186520083.5</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B58" t="n">
-        <v>1550</v>
+        <v>1700</v>
       </c>
       <c r="C58" t="n">
-        <v>81912800000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B59" t="n">
-        <v>1550</v>
+        <v>1725</v>
       </c>
       <c r="C59" t="n">
-        <v>60230000000000</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B60" t="n">
-        <v>1575</v>
+        <v>1750</v>
       </c>
       <c r="C60" t="n">
-        <v>81912800000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B61" t="n">
-        <v>1600</v>
+        <v>1750</v>
       </c>
       <c r="C61" t="n">
         <v>60230000000000</v>
@@ -1107,54 +1107,54 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B62" t="n">
-        <v>1600</v>
+        <v>1750</v>
       </c>
       <c r="C62" t="n">
-        <v>70783299619480.98</v>
+        <v>81912800000000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B63" t="n">
-        <v>1600</v>
+        <v>1750</v>
       </c>
       <c r="C63" t="n">
-        <v>73550608929229.3</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B64" t="n">
-        <v>1600</v>
+        <v>1750</v>
       </c>
       <c r="C64" t="n">
-        <v>81912800000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B65" t="n">
-        <v>1625</v>
+        <v>1800</v>
       </c>
       <c r="C65" t="n">
-        <v>81912800000000</v>
+        <v>70622013322679.88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B66" t="n">
-        <v>1650</v>
+        <v>1800</v>
       </c>
       <c r="C66" t="n">
         <v>60230000000000</v>
@@ -1162,98 +1162,98 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B67" t="n">
-        <v>1650</v>
+        <v>1800</v>
       </c>
       <c r="C67" t="n">
-        <v>81912800000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B68" t="n">
-        <v>1675</v>
+        <v>1800</v>
       </c>
       <c r="C68" t="n">
-        <v>81912800000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B69" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="C69" t="n">
-        <v>81912800000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B70" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C70" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C71" t="n">
-        <v>84924300000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B72" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C72" t="n">
-        <v>70701538579904.2</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B73" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C73" t="n">
-        <v>72851210229981.69</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B74" t="n">
-        <v>1725</v>
+        <v>1900</v>
       </c>
       <c r="C74" t="n">
-        <v>81912800000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B75" t="n">
-        <v>1750</v>
+        <v>1900</v>
       </c>
       <c r="C75" t="n">
         <v>60230000000000</v>
@@ -1261,98 +1261,98 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B76" t="n">
-        <v>1750</v>
+        <v>1900</v>
       </c>
       <c r="C76" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>1750</v>
+        <v>1900</v>
       </c>
       <c r="C77" t="n">
-        <v>81912800000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B78" t="n">
-        <v>1750</v>
+        <v>1900</v>
       </c>
       <c r="C78" t="n">
-        <v>84924300000000</v>
+        <v>70544743375992.7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B79" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="C79" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B80" t="n">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="C80" t="n">
-        <v>70622013322679.88</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="B81" t="n">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="C81" t="n">
-        <v>72180094367308.59</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B82" t="n">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="C82" t="n">
-        <v>84924300000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B83" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C83" t="n">
-        <v>60230000000000</v>
+        <v>70469706522392.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B84" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C84" t="n">
         <v>60230000000000</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B85" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C85" t="n">
         <v>60230000000000</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B86" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="C86" t="n">
         <v>84924300000000</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B87" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="C87" t="n">
         <v>60230000000000</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88" t="n">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="C88" t="n">
         <v>60230000000000</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B89" t="n">
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="C89" t="n">
         <v>60230000000000</v>
@@ -1415,21 +1415,21 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="B90" t="n">
-        <v>1900</v>
+        <v>2050</v>
       </c>
       <c r="C90" t="n">
-        <v>71536086177449.53</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B91" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="C91" t="n">
         <v>60230000000000</v>
@@ -1437,32 +1437,32 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B92" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="C92" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B93" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="C93" t="n">
-        <v>84924300000000</v>
+        <v>70396854189254.83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B94" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="C94" t="n">
         <v>60230000000000</v>
@@ -1470,21 +1470,21 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>1900</v>
+        <v>2150</v>
       </c>
       <c r="C95" t="n">
-        <v>70544743375992.7</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B96" t="n">
-        <v>1950</v>
+        <v>2150</v>
       </c>
       <c r="C96" t="n">
         <v>84924300000000</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B97" t="n">
-        <v>1950</v>
+        <v>2150</v>
       </c>
       <c r="C97" t="n">
         <v>60230000000000</v>
@@ -1503,54 +1503,54 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B98" t="n">
-        <v>1950</v>
+        <v>2200</v>
       </c>
       <c r="C98" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B99" t="n">
-        <v>1950</v>
+        <v>2200</v>
       </c>
       <c r="C99" t="n">
-        <v>60230000000000</v>
+        <v>70326121646894.82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="C100" t="n">
-        <v>70917875798407.97</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B101" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="C101" t="n">
-        <v>70469706522392.27</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B102" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="C102" t="n">
         <v>60230000000000</v>
@@ -1558,32 +1558,32 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="C103" t="n">
-        <v>84924300000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B104" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="C104" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B105" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="C105" t="n">
         <v>60230000000000</v>
@@ -1591,43 +1591,43 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B106" t="n">
-        <v>2050</v>
+        <v>2300</v>
       </c>
       <c r="C106" t="n">
-        <v>84924300000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B107" t="n">
-        <v>2050</v>
+        <v>2300</v>
       </c>
       <c r="C107" t="n">
-        <v>60230000000000</v>
+        <v>70257434811043.13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B108" t="n">
-        <v>2050</v>
+        <v>2300</v>
       </c>
       <c r="C108" t="n">
-        <v>60230000000000</v>
+        <v>84924300000000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B109" t="n">
-        <v>2100</v>
+        <v>2350</v>
       </c>
       <c r="C109" t="n">
         <v>60230000000000</v>
@@ -1635,54 +1635,54 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B110" t="n">
-        <v>2100</v>
+        <v>2350</v>
       </c>
       <c r="C110" t="n">
-        <v>70324107169606.3</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B111" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="C111" t="n">
-        <v>84924300000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B112" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="C112" t="n">
-        <v>70396854189254.83</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B113" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="C113" t="n">
-        <v>60230000000000</v>
+        <v>70190714793495.27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B114" t="n">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C114" t="n">
         <v>60230000000000</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B115" t="n">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C115" t="n">
         <v>60230000000000</v>
@@ -1701,43 +1701,43 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B116" t="n">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="C116" t="n">
-        <v>84924300000000</v>
+        <v>70125880941930.6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B117" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="C117" t="n">
-        <v>69753431764667.73</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B118" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="C118" t="n">
-        <v>70326121646894.82</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B119" t="n">
-        <v>2200</v>
+        <v>2550</v>
       </c>
       <c r="C119" t="n">
         <v>60230000000000</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B120" t="n">
-        <v>2200</v>
+        <v>2550</v>
       </c>
       <c r="C120" t="n">
         <v>60230000000000</v>
@@ -1756,276 +1756,23 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B121" t="n">
-        <v>2200</v>
+        <v>2580</v>
       </c>
       <c r="C121" t="n">
-        <v>84924300000000</v>
+        <v>60230000000000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B122" t="n">
-        <v>2250</v>
+        <v>2580</v>
       </c>
       <c r="C122" t="n">
-        <v>84924300000000</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2250</v>
-      </c>
-      <c r="C123" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2250</v>
-      </c>
-      <c r="C124" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C125" t="n">
-        <v>84924300000000</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B126" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C126" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B127" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C127" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C128" t="n">
-        <v>69204540481372.07</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C129" t="n">
-        <v>70257434811043.13</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2350</v>
-      </c>
-      <c r="C130" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B131" t="n">
-        <v>2350</v>
-      </c>
-      <c r="C131" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C132" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C133" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C134" t="n">
-        <v>68676181721174.09</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C135" t="n">
-        <v>70190714793495.27</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2450</v>
-      </c>
-      <c r="C136" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2450</v>
-      </c>
-      <c r="C137" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C138" t="n">
-        <v>68167170720496.4</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C139" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C140" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C141" t="n">
-        <v>70125880941930.6</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2550</v>
-      </c>
-      <c r="C142" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2550</v>
-      </c>
-      <c r="C143" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2580</v>
-      </c>
-      <c r="C144" t="n">
-        <v>60230000000000</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2580</v>
-      </c>
-      <c r="C145" t="n">
         <v>60230000000000</v>
       </c>
     </row>
